--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pancho/Desktop/review-meta-animcogn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pancho/Library/CloudStorage/GoogleDrive-amizuno@ualberta.ca/My Drive/systematic_mapping_AnimCogn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C7B61A-7847-8C45-B0ED-645D86EAE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AF26C-D26A-9F42-9013-42E3B92193FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="760" windowWidth="24940" windowHeight="18880" xr2:uid="{78C5A552-6379-5347-8E89-94FE4A2F7D9A}"/>
+    <workbookView xWindow="7660" yWindow="760" windowWidth="21360" windowHeight="18880" xr2:uid="{78C5A552-6379-5347-8E89-94FE4A2F7D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="variable" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
-  <si>
-    <t>bibliometrics</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Statement on author contributions
 Adequate / Insufficient / Not applicable
@@ -345,78 +342,6 @@
   </si>
   <si>
     <t>mapping</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>author Keywords</t>
-  </si>
-  <si>
-    <t>Abbreviated journal</t>
-  </si>
-  <si>
-    <t>open access</t>
-  </si>
-  <si>
-    <t>affiliations_country</t>
-  </si>
-  <si>
-    <t>affiliations_country_n</t>
-  </si>
-  <si>
-    <t>affiliations_university</t>
-  </si>
-  <si>
-    <t>affiliations_university_n</t>
-  </si>
-  <si>
-    <t>index Keywords</t>
-  </si>
-  <si>
-    <t>authors name</t>
-  </si>
-  <si>
-    <t>published year</t>
-  </si>
-  <si>
-    <t>journal name</t>
-  </si>
-  <si>
-    <t>abbreviated journal name</t>
-  </si>
-  <si>
-    <t>the country where the authors’ affiliated institutions were located at the time of publication, represented by country codes (e.g., CN, JP, UK, US).</t>
-  </si>
-  <si>
-    <t>number of the country where the authors’ affiliated institutions were located at the time of publication, represented by country codes (e.g., CN, JP, UK, US).</t>
-  </si>
-  <si>
-    <t>number of authors’ affiliated institutions at the time of publication</t>
-  </si>
-  <si>
-    <t>authors’ affiliated institutions at the time of publication</t>
-  </si>
-  <si>
-    <t>keywords provided by authors</t>
-  </si>
-  <si>
-    <t>keywords provided by scopus</t>
-  </si>
-  <si>
-    <t>label of open access</t>
   </si>
   <si>
     <t>non-learning task</t>
@@ -456,12 +381,73 @@
 Insufficient: only effect size is reported
 Not applicable: effect size and variance are not reported</t>
   </si>
+  <si>
+    <t>research_aim</t>
+  </si>
+  <si>
+    <t>factors_1</t>
+  </si>
+  <si>
+    <t>Indicates whether the meta-analysis focuses on understanding cognition in animals or on using animals as models for human cognition
+animal / human</t>
+  </si>
+  <si>
+    <t>contents1−3</t>
+  </si>
+  <si>
+    <t>If factors influencing cognitive ability is selected in contents1–3, then the study can be further subcategorized into one or more of the following:
+- proximate factors: Short-term or mechanistic factors such as sleep, development, hormones, or environmental interventions.
+- individual differences: Age, sex, personality traits, or similar individual-level variation.
+- species differences: Differences across species, typically comparative studies.
+- evolutionary influences: Evolutionary or phylogenetic analyses across species.</t>
+  </si>
+  <si>
+    <t>inference</t>
+  </si>
+  <si>
+    <t>Indicates whether the classification of study design or subject origin (e.g., “laboratory” vs. “field”) was based on inference from indirect information rather than explicitly stated in the meta-analytical study.
+yes:
+The value for a variable (e.g., study design or origin) was inferred from indirect clues such as species used or experimental setting, rather than directly reported.
+- Example 1: If the primary studies clearly involved highly controlled lab experiments, even without an explicit label, “laboratory” is assigned and inference = yes.
+- Example 2: If the meta-analysis focused exclusively on rats or mice (typically lab animals), the study is coded as “laboratory” and inference = yes.
+no:
+The classification is based on information explicitly stated in the meta-analytical study.
+- Example: If the study design is described as “field-based testing” in the text, and this is used as the basis for coding, then inference = no.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These three variables correspond to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main research focus or type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the meta-analysis. A single study can have multiple values (e.g., both contents1 and contents2).
+Values (non-exclusive):
+- factors influencing cognitive ability: Studies examining what affects cognitive ability.
+- presence or absence of cognitive abilities: Studies testing whether certain abilities exist in animals.
+- effectiveness of cognitive tasks: Studies evaluating specific cognitive paradigms or task types.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,28 +469,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF0E0E0E"/>
-      <name val=".AppleSystemUIFont"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -531,35 +507,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,515 +865,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024B1357-1D9F-814A-8B1F-CFCE76C2DD5C}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="83" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="173" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="200" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="160" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="80" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" ht="40">
-      <c r="A2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="80">
-      <c r="A4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="83" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="80">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="173" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="200">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="80">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="100">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="140">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="140">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="160">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="80">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="80">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="80" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="194" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="80">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="140">
-      <c r="A33" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="140" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="40">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="80">
-      <c r="A42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="240">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="160">
-      <c r="A44" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="240">
-      <c r="A45" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="160" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="200">
-      <c r="A46" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="200" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="80">
-      <c r="A49" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="80" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="140">
-      <c r="A50" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="3" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="140" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
